--- a/2025-03-03_o3-mini_feedback_sheets/diff_spec/CREST syndrome with Type 2 Achalasia_vs_Scleroderma.xlsx
+++ b/2025-03-03_o3-mini_feedback_sheets/diff_spec/CREST syndrome with Type 2 Achalasia_vs_Scleroderma.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pain relieved with regurgitation is present (#1)</t>
+          <t>Raynauds phenomenon reported is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is typical of an obstructive esophageal motility disorder like Type 2 Achalasia seen in CREST syndrome and is not common in Scleroderma.</t>
+          <t>Raynaud's phenomenon is a hallmark feature of CREST syndrome and helps support the diagnosis in this context.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Long-standing heartburn (duration of years) is present (#7)</t>
+          <t>Long-standing heartburn (duration of years) is present.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chronic heartburn is common in Scleroderma due to progressive esophageal smooth muscle atrophy and dysfunction.</t>
+          <t>Chronic heartburn is a frequent manifestation of scleroderma-related esophageal dysmotility and reflux.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raynauds phenomenon reported is present (#2)</t>
+          <t>Telangiectasias reported is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's is a hallmark of CREST syndrome, tipping the balance toward limited scleroderma/CREST rather than diffuse Scleroderma.</t>
+          <t>Telangiectasias are classic in CREST syndrome and are less commonly a feature of typical scleroderma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Long-standing reflux (duration of years) is present (#8)</t>
+          <t>Long-standing reflux (duration of years) is present.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Persistent reflux over years is more typical of Scleroderma where esophageal dysmotility leads to acid exposure.</t>
+          <t>Persistent reflux is common in scleroderma due to progressive esophageal involvement and reduced lower esophageal sphincter tone.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Telangiectasias reported is present (#3)</t>
+          <t>Non-progressive dysphagia: liquids throughout difficulty swallowing is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Telangiectasias are a classic component of CREST syndrome and help distinguish this limited variant from diffuse Scleroderma.</t>
+          <t>A non-progressive dysphagia pattern with liquids is more suggestive of a motility disorder like Type 2 achalasia seen in CREST-associated presentations.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pain when swallowing (odynophagia) is present (#31)</t>
+          <t>Antacids no longer providing relief is present.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Odynophagia is more consistent with inflammatory and progressive esophageal involvement seen in Scleroderma rather than the functional obstruction in achalasia.</t>
+          <t>Loss of response to antacids implies more severe or progressive esophageal dysfunction as seen in scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Non-progressive dysphagia: difficulty swallowing liquids is present (#13)</t>
+          <t>Pain relieved with regurgitation is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A non-progressive pattern of dysphagia, particularly affecting liquids, supports a motility disorder such as Type 2 Achalasia rather than the progressive esophageal involvement seen in Scleroderma.</t>
+          <t>Relief of pain on regurgitation is consistent with the mechanical dysfunction seen in achalasia as opposed to a fibrotic process.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Onset of chest pain associated with eating food is present (#27)</t>
+          <t>Weight loss reported is present.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chest pain triggered by eating supports progressive esophageal involvement, as seen in Scleroderma-induced dysmotility.</t>
+          <t>Weight loss can be a consequence of chronic esophageal dysmotility and malabsorption associated with scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present (#10)</t>
+          <t>Difficulty swallowing liquids is present (and Difficulty swallowing solids is present).</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Loss of antacid efficacy suggests an underlying mechanical or motility issue (as in achalasia) rather than an acid reflux disorder typically responsive to antacids, favoring CREST with Type 2 Achalasia.</t>
+          <t>The simultaneous difficulty with both liquids and solids supports a motility disorder pattern rather than the progressive esophageal involvement seen in scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tightness (character of pain) is present (#24)</t>
+          <t>Pain when swallowing (aka odynophagia) is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A sensation of tightness can reflect the fibrotic, progressive nature of Scleroderma affecting esophageal and possibly chest wall tissues.</t>
+          <t>Odynophagia suggests inflammatory or mucosal injury consistent with scleroderma-related esophageal changes rather than a mechanical motility issue.</t>
         </is>
       </c>
     </row>
@@ -618,105 +618,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amlodipine is commonly utilized to treat Raynaud phenomenon, which is a hallmark feature in CREST syndrome and supports the limited scleroderma variant associated with esophageal dysmotility (eg, Type 2 Achalasia).</t>
+          <t>Amlodipine is frequently used to address Raynaud phenomenon, which is a classic component of CREST syndrome; its use may hint at vasospastic issues associated with limited cutaneous disease that can be seen in CREST with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Takes amlodipine</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Scleroderma in general, including its diffuse type, has a marked female predominance; this sex predilection supports the diagnosis of scleroderma over other causes of esophageal dysmotility.</t>
+          <t>Amlodipine is also utilized to manage Raynaud phenomenon in scleroderma; in diffuse scleroderma, severe vascular dysfunction is common and the initiation of calcium channel blockers can signal significant vascular compromise.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Absence of type 2 diabetes</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The lack of metabolic syndrome components (such as type 2 diabetes) is more consistent with an autoimmune process like CREST syndrome rather than a non‐autoimmune condition with vascular compromise.</t>
+          <t>CREST syndrome in the context of Type 2 Achalasia more typically affects middle‐aged females, matching the demographic predisposition seen in limited systemic sclerosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The typical demographic for scleroderma is middle‐aged females, which is consistent with the clinical context provided.</t>
+          <t>Scleroderma, particularly the diffuse variety, also predominantly affects females. This demographic overlap, while common to both conditions, supports scleroderma in the appropriate clinical setting.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Absence of coronary artery disease</t>
+          <t>Middle age</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Without coronary artery disease the vascular abnormalities seen are less likely due to atherosclerosis and more likely represent an autoimmune process as seen in CREST syndrome.</t>
+          <t>The presentation in middle age aligns with the typical onset of CREST syndrome (limited cutaneous systemic sclerosis), distinguishing it from other variants of scleroderma that may begin earlier or present with a more aggressive course.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of obesity</t>
+          <t>Middle age</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Obesity is less commonly associated with autoimmune connective tissue diseases such as scleroderma; its absence is supportive of an autoimmune etiology rather than metabolic or vascular disease.</t>
+          <t>The typical age of onset for scleroderma is in the middle-age period. This finding, though similar to CREST syndrome demographics, supports scleroderma when combined with other internal organ involvements.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of prior myocardial infarction</t>
+          <t>Absence of coronary artery disease</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of myocardial infarction reinforces that vascular events are not related to atherosclerotic or metabolic factors; a finding that supports an autoimmune etiology like that seen in CREST syndrome.</t>
+          <t>The lack of coronary artery disease points toward a non-atherosclerotic vascular pathology. In CREST syndrome the vascular involvement is due to microvascular dysfunction rather than atherosclerosis, which can be a distinguishing feature compared to more diffuse scleroderma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of prior stroke</t>
+          <t>Absence of environmental allergies, asthma, and eczema</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Without a history of stroke, the clinical picture favors a primary autoimmune process such as scleroderma over conditions that might be complicated by cerebrovascular insult from generalized vascular disease.</t>
+          <t>While nonspecific, the absence of atopic disorders may lean toward an autoimmune etiology rather than an atopic diathesis; scleroderma is fundamentally autoimmune and its clinical picture often lacks atopic manifestations.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of hyperlipidemia</t>
+          <t>Absence of hypertension</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lack of hyperlipidemia, a typical cardiovascular risk factor, helps to exclude vascular disease of atherosclerotic origin and indirectly supports an autoimmune process characteristic of CREST syndrome with esophageal dysmotility.</t>
+          <t>The absence of diagnosed hypertension supports a picture of limited systemic involvement. While both CREST and scleroderma are associated with vascular issues, limited disease (as in CREST) may have less overt hypertension than the diffuse form of scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of nicotine dependence</t>
+          <t>Absence of prior treatment with radiation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of nicotine dependence removes a confounder for vascular injury; this indirectly favors a diagnosis based on intrinsic connective tissue pathology as seen in scleroderma.</t>
+          <t>Excluding radiation-induced or mimic forms of scleroderma helps to focus on primary autoimmune scleroderma, a diagnosis supported by other systemic manifestations; this absence makes the classic autoimmune scleroderma (versus CREST limited variant with unique motility issues) more likely.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Family history of Rheumatoid Arthritis is absent</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>The absence of a family history of autoimmune arthritis may indirectly favor a CREST variant with Type 2 Achalasia, as it reduces the likelihood of systemic autoimmune conditions seen in diffuse scleroderma.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Prior tobacco use is present</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Although not a classical risk factor, a history of prior tobacco use may be more commonly reported in patients with vascular dysregulation, a feature sometimes observed in CREST syndrome with type 2 achalasia due to its prominence of esophageal dysmotility.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Family history of Rheumatoid Arthritis is absent</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>While autoimmune diseases can cluster, the absence of a family history of RA might favor a diagnosis of scleroderma where family history patterns differ from those seen in CREST syndrome with type 2 achalasia.</t>
+          <t>A history of tobacco use can contribute to vascular injury and fibrotic processes, which are more commonly seen in scleroderma, favoring this diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Alcohol use is absent</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Alcohol is not typically linked to scleroderma pathogenesis; its absence does not contribute to scleroderma risk and can support a profile more typical for CREST with Type 2 Achalasia where lifestyle factors are neutral.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Family history of myocardial infarction in father is present</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>A positive family history of myocardial infarction may indicate an underlying vascular predisposition; when seen in conjunction with CREST features, it may support the vascular component of limited scleroderma (CREST syndrome) with its esophageal dysmotility.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Current tobacco use is absent</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of current tobacco use removes an exacerbating factor for vascular injury, a feature sometimes implicated in CREST syndrome, thereby aligning more with scleroderma’s broader systemic manifestations.</t>
+          <t>A family history of myocardial infarction may indicate a predisposition to vascular abnormalities, a central problem in scleroderma, thereby supporting that diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Recent social stress is present</t>
+          <t>Current tobacco use is absent</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Recent social stress is known to trigger vasospastic events such as Raynaud phenomenon, which is a key feature of CREST syndrome and may be more pronounced when esophageal dysmotility (type 2 achalasia) is part of the presentation.</t>
+          <t>Active smoking is known to worsen vascular and fibrotic changes in scleroderma. Its absence may comparatively favor a diagnosis of CREST with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Alcohol use is absent</t>
+          <t>Family history of cancer is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of alcohol use removes an extrinsic contributor to esophageal dysmotility, which may be less typical in classic scleroderma, thereby supporting the diagnosis of systemic scleroderma over a CREST variant with type 2 achalasia.</t>
+          <t>While not a direct marker, the absence of familial cancer syndromes can be seen in scleroderma patients, as scleroderma can be associated with non-malignant vascular and fibrotic changes.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alcohol use is absent</t>
+          <t>Recent social stress is present</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of alcohol use eliminates a potential confounder that could otherwise contribute to diverse organ dysfunction; in some contexts, its absence allows for clearer recognition of CREST syndrome features with type 2 achalasia.</t>
+          <t>Social stress can exacerbate esophageal dysmotility, a hallmark in achalasia associated with CREST syndrome, making this piece of evidence more supportive of that diagnosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recent Travel is absent</t>
+          <t>Gestational complications with prior pregnancy is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of recent travel minimizes exposure to environmental triggers that might confound a limited disease process, thus it fits more with the systemic pattern seen in scleroderma.</t>
+          <t>Some forms of scleroderma can be associated with pregnancy-related complications; the absence of these might reduce alternate explanations, thus favoring features consistent with scleroderma vascular pathology.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent</t>
+          <t>Recent medical procedure is absent</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of gestational complications may help differentiate from systemic autoimmune processes that sometimes affect pregnancy outcomes, indirectly supporting a more limited form of disease as seen in CREST syndrome.</t>
+          <t>The absence of recent medical interventions minimizes the likelihood of iatrogenic triggers to fibrotic changes that can occur in scleroderma, thus indirectly supporting CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent</t>
+          <t>Recent Travel is absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of a family history of cancer helps refine the differential by reducing the likelihood of paraneoplastic processes that could mimic or complicate limited manifestations as seen in CREST syndrome, thereby favoring a diagnosis of scleroderma.</t>
+          <t>The absence of recent travel minimizes exposure to environmental triggers that might otherwise mimic CREST syndrome features, indirectly sharpening the clinical picture in favor of scleroderma.</t>
         </is>
       </c>
     </row>
@@ -920,29 +920,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Telangiectasias are a hallmark feature of CREST syndrome, supporting its diagnosis over scleroderma.</t>
+          <t>Telangiectasias are a classic component of the CREST syndrome subset, especially in limited scleroderma coupled with esophageal dysmotility, and are less commonly emphasized in diffuse scleroderma.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Raynauds phenomennon on exam is absent</t>
+          <t>Raynauds phenomenon on exam is absent</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is nearly universal in scleroderma, so its absence strongly argues against scleroderma.</t>
+          <t>Raynaud's phenomenon is almost universal in scleroderma; its absence strongly argues against scleroderma and indirectly supports a CREST variant with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Weight loss on vitals is present</t>
+          <t>Absence of hand thickening</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weight loss can be associated with esophageal dysmotility (Type 2 Achalasia), which is more typical in CREST syndrome than in classic scleroderma.</t>
+          <t>In CREST syndrome (limited scleroderma), skin changes are more localized, and overt hand thickening is less common compared to the diffuse skin involvement in scleroderma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -952,19 +952,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Scleroderma typically manifests with fibrotic skin changes including hand thickening; its absence favors other diagnoses.</t>
+          <t>Diffuse scleroderma characteristically has significant skin thickening, so its absence is highly unfavorable for scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hand thickening observed is absent</t>
+          <t>Absence of finger ulcers</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of hand thickening argues against the fibrotic skin changes seen in scleroderma; in CREST syndrome, sclerodactyly may be milder.</t>
+          <t>Finger ulcers, often seen with digital ischemia in more widespread scleroderma, are not present here, favoring a CREST picture.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -974,19 +974,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Finger ulcers, often resulting from microvascular disease in scleroderma, are notably absent, thus weighing against scleroderma.</t>
+          <t>The lack of digital ulcers, which are common in scleroderma due to vascular compromise, is evidence against scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Finger ulcers observed is absent</t>
+          <t>Absence of joint swelling observed</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Finger ulcers are common in scleroderma due to vascular compromise; their absence supports a CREST syndrome picture.</t>
+          <t>Joint swelling can be associated with the inflammatory process in broader scleroderma but is uncommon in CREST syndrome, supporting CREST when absent.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -996,29 +996,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A hoarse voice can occur in scleroderma due to tissue fibrosis affecting the larynx; its absence reduces support for scleroderma.</t>
+          <t>Hoarseness and laryngeal involvement can occur in scleroderma; therefore, its absence is more consistent with a CREST picture rather than scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Weight loss on vitals is present</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Although not exclusively diagnostic, weight loss can be linked with esophageal dysmotility (as in type 2 achalasia) seen in CREST syndrome, lending subtle support for that diagnosis.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Joint swelling observed is absent</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Joint involvement with swelling is more frequently seen in scleroderma; its absence makes a CREST syndrome with achalasia more likely.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Joint swelling observed is absent</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Joint involvement (swelling) is more characteristic of scleroderma, so its absence diminishes the likelihood of scleroderma.</t>
+          <t>Joint swelling can be a finding in systemic scleroderma due to inflammatory changes; the absence of joint swelling leans away from a scleroderma diagnosis.</t>
         </is>
       </c>
     </row>
@@ -1066,78 +1066,78 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>CT shows ILD is absent</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Interstitial lung disease (ILD) is more commonly seen in scleroderma than in CREST syndrome with Type 2 Achalasia; its absence therefore supports CREST over scleroderma.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>ANA strong positive is absent</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>A strong positive antinuclear antibody is very common in classic scleroderma. Its absence favors CREST syndrome with Type 2 Achalasia, which may demonstrate less serologic positivity.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MBS shows aspiration is absent</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>In scleroderma, esophageal dysmotility often occurs but overt aspiration may be less frequent compared with the type of profound dysmotility seen in Type 2 achalasia. The absence of aspiration can be interpreted as slightly more typical for scleroderma.</t>
+          <t>A strong positive ANA is a common finding in scleroderma; its absence is a strong point against scleroderma relative to CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>CXR shows widened mediastinum is absent</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Widened mediastinum, though not a classical finding, can point toward more diffuse systemic involvement seen in scleroderma; its absence lends relative support to CREST syndrome.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>CT shows ILD is absent</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Interstitial lung disease is notably more frequent in scleroderma. Its absence supports a CREST syndrome phenotype, where lung involvement is less common.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ANA strong positive is absent</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Although a strong positive ANA commonly supports scleroderma, its absence argues against it. However, if one were expecting scleroderma, the missing positivity forces reliance on other, subtler findings.</t>
+          <t>ILD is a common pulmonary manifestation of scleroderma; the absence of ILD on CT imaging argues against a scleroderma diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CXR shows widened mediastinum is absent</t>
+          <t>MBS shows aspiration is absent</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A widened mediastinum can be seen with complications or advanced fibrotic changes in scleroderma. Its absence lends indirect support to CREST syndrome with less extensive systemic fibrosis.</t>
+          <t>Scleroderma can affect esophageal motility leading to aspiration; the absence of aspiration on a modified barium swallow (MBS) test supports CREST syndrome with Type 2 Achalasia which has a distinct motility pattern.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CT shows ILD is absent</t>
+          <t>MBS shows aspiration is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interstitial lung disease is common in scleroderma. Its absence weakens the evidence for scleroderma, but when contrast is made with CREST cases that can also show minimal lung involvement, this finding is less discriminatory in favor of scleroderma.</t>
+          <t>Esophageal dysmotility and resultant aspiration occur relatively more frequently in scleroderma; therefore, the absence of aspiration on a modified barium swallow test counts against scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MBS shows aspiration is absent</t>
+          <t>ANA strong positive is absent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Type 2 achalasia in CREST syndrome is often associated with esophageal dysmotility and risk for aspiration. Although aspiration might occur with achalasia, its absence here, in the setting of absent other scleroderma lung features, minimally tips the balance toward CREST.</t>
+          <t>Antinuclear antibodies (ANA) are frequently positive in scleroderma; their absence is more compatible with CREST syndrome with Type 2 Achalasia, even though many CREST patients may have positive anti-centromere antibodies.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1147,29 +1147,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A widened mediastinum can be associated with advanced fibrotic change in scleroderma. Its absence does not add to scleroderma’s profile; however, in the differential it is less supportive of a CREST picture driven by severe visceral involvement.</t>
+          <t>Although not definitive, some diffuse systemic involvement in scleroderma can affect mediastinal structures; the absence of a widened mediastinum provides evidence against scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hyperlipidemia on lab testing is present</t>
+          <t>Hyperlipidemia is present</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>While hyperlipidemia is nonspecific, its presence without accompanying markers of systemic sclerosis (eg, strong ANA positivity or ILD) is more compatible with a CREST syndrome variant, which tends to be more limited in systemic involvement.</t>
+          <t>While not a classic autoimmune marker, hyperlipidemia is a non-specific finding and does not contribute to the profile of scleroderma, thereby indirectly favoring CREST syndrome in this context.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hyperlipidemia on lab testing is present</t>
+          <t>Hyperlipidemia is present</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Though hyperlipidemia is not a classic marker of scleroderma, when other systemic markers (eg, strong ANA, ILD) are absent, the metabolic profile may be considered in the overall evaluation. In this limited context, it is a neutral finding that does little to favor CREST, thereby relatively supporting scleroderma if one is considering alternative explanations.</t>
+          <t>Hyperlipidemia is not typically associated with scleroderma and its presence does not support the systemic inflammatory processes seen in scleroderma, thereby indirectly arguing against it.</t>
         </is>
       </c>
     </row>
